--- a/console/Networking/iaas网络与容器中文提取/vpcExcel/vpc_detail.xlsx
+++ b/console/Networking/iaas网络与容器中文提取/vpcExcel/vpc_detail.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\console;Networking;iaas网络与容器中文提取-0107-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\文件\工作-中译语通\2018年\12月\12月4日\VPC和子网国际化-by-JD\最终版\vpcExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -261,15 +261,37 @@
     </r>
   </si>
   <si>
-    <t>The VPC cannot be deleted. Please delete the subnet of the VPC first'</t>
+    <r>
+      <t xml:space="preserve">The VPC cannot be deleted. Please delete the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Subnets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the VPC first'</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,6 +301,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
@@ -305,14 +342,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -652,18 +688,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="4" max="4" width="60.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,7 +711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -685,7 +722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -695,8 +732,10 @@
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D3" s="2"/>
+      <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -707,7 +746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -718,7 +757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -729,7 +768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -743,6 +782,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B7" numberStoredAsText="1"/>
   </ignoredErrors>
